--- a/src/assets/list.xlsx
+++ b/src/assets/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\search\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830DB54-F434-46E2-A3AD-DC408945C39B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90993666-E2F2-4DA2-9AF3-C122373121A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>А</t>
   </si>
@@ -61,9 +61,6 @@
   <si>
     <t xml:space="preserve">Бадараяна (Ведавьяса, Вьясадева или Кришна-Двайпаяна) – древнеиндийский философ, один из основателей учения веданты, а также составитель трактата «Веданта-сутры».
 </t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Авеша</t>
@@ -447,21 +444,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -483,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">

--- a/src/assets/list.xlsx
+++ b/src/assets/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\search\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E181C979-CDC1-4AAC-962A-253E35669CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B396348-38A0-48F6-A125-05778AF72254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8386,7 +8386,7 @@
     <t>яшасвини-нади</t>
   </si>
   <si>
-    <t>list</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -8657,9 +8657,7 @@
   </sheetPr>
   <dimension ref="A1:A5750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
